--- a/biology/Zoologie/Chromodorididae/Chromodorididae.xlsx
+++ b/biology/Zoologie/Chromodorididae/Chromodorididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chromodorididae forment une famille de mollusques de l'ordre des nudibranches (groupe des doridiens).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est présente sous toutes les latitudes et est souvent caractérisée par des couleurs vive[1]. Il s'agit d'une des plus vastes familles de nudibranches, avec plus de 360 espèces connues, réparties entre 17 genres. Sa répartition géographique s'étend de l'Indo-Pacifique, mer Rouge incluse, à l'océan Atlantique, mers des Caraïbes et Méditerranée comprises, et le pic de diversité se situe entre les tropiques, notamment dans la région Indonésienne. Il s'agit d'un groupe de nudibranches particulièrement diversifié et coloré, et donc prisé par les photographes sous-marins.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est présente sous toutes les latitudes et est souvent caractérisée par des couleurs vive. Il s'agit d'une des plus vastes familles de nudibranches, avec plus de 360 espèces connues, réparties entre 17 genres. Sa répartition géographique s'étend de l'Indo-Pacifique, mer Rouge incluse, à l'océan Atlantique, mers des Caraïbes et Méditerranée comprises, et le pic de diversité se situe entre les tropiques, notamment dans la région Indonésienne. Il s'agit d'un groupe de nudibranches particulièrement diversifié et coloré, et donc prisé par les photographes sous-marins.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species, prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte actuellement 17 genres valides[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species, prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte actuellement 17 genres valides :
 sous-famille Chromodoridinae Bergh, 1891
 genre Ardeadoris Rudman, 1984 -- 13 espèces
 genre Berlanguella Ortea, Bacallado &amp; Valdés, 1992 -- 1 espèce
